--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/87.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/87.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1972482213722501</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.667097840889083</v>
+        <v>-1.668370435348655</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2112954256936835</v>
+        <v>-0.2097686271460218</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3199153372164013</v>
+        <v>-0.3181099372842695</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2051610965472623</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.813384816994087</v>
+        <v>-1.812877982837028</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1962068783968951</v>
+        <v>-0.1948028533406949</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3221189639862223</v>
+        <v>-0.3199830200386172</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2229176705629477</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.996270885707575</v>
+        <v>-1.994408034077515</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2723705156383928</v>
+        <v>-0.2703038285321249</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3544650569289514</v>
+        <v>-0.3521685630309737</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2380078828221485</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.023418780502208</v>
+        <v>-2.021850270447832</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2449542505835774</v>
+        <v>-0.2429961707966793</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3577248505291651</v>
+        <v>-0.3556833477288381</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2365679480995005</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.961597605494003</v>
+        <v>-1.959280649347448</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1958511500754811</v>
+        <v>-0.1947918352068457</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3710756807160376</v>
+        <v>-0.3688720539462166</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2134232412267469</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.71380528429456</v>
+        <v>-1.711516660492189</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1737424774976916</v>
+        <v>-0.1712397870948235</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3894901304161343</v>
+        <v>-0.3870519747972396</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.174375153730601</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.496308109122791</v>
+        <v>-1.49150262874546</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.05632379908690294</v>
+        <v>-0.05388564346800817</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3727252527551607</v>
+        <v>-0.3704507951248812</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1258191010073402</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.216937816311814</v>
+        <v>-1.211847438473528</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.007812529768415738</v>
+        <v>-0.00456847635941502</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3221677585789826</v>
+        <v>-0.3206787364902322</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.06778458389965999</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.041906890023178</v>
+        <v>-1.03415248482209</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1441716085461361</v>
+        <v>0.1453694370974459</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3182043784315475</v>
+        <v>-0.3158685340555373</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.003224114130785014</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.8177020323659865</v>
+        <v>-0.8086104979213536</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1753009847080998</v>
+        <v>0.1744588844782039</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3056641680921449</v>
+        <v>-0.3032165683585223</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.09236913241069535</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5967774305575858</v>
+        <v>-0.5866328773208028</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1723150704349924</v>
+        <v>0.1706245738987154</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2589693168396387</v>
+        <v>-0.256395795576312</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2100503966605164</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.4005161343608457</v>
+        <v>-0.3860131221771811</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.006227492513265946</v>
+        <v>-0.007848732208205655</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2075287979364109</v>
+        <v>-0.2055770142259981</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3621088520350326</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.09364851451030615</v>
+        <v>-0.0798254785870435</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1212174594198877</v>
+        <v>-0.1239594007291935</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.09701376739164702</v>
+        <v>-0.09517531305796781</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5481820253275653</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2950680996478691</v>
+        <v>0.3114615087962158</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4019406216656228</v>
+        <v>-0.4038766651848226</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03701868284447045</v>
+        <v>0.0373586709746714</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7641738322529017</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6468298928761468</v>
+        <v>0.6649405568858325</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6048757589366779</v>
+        <v>-0.6069314279090965</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07446144970197122</v>
+        <v>0.0758072360506833</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.9945561432623551</v>
       </c>
       <c r="E17" t="n">
-        <v>1.139060300527541</v>
+        <v>1.157772239841563</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7094834957192002</v>
+        <v>-0.7139741722722711</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1366887216434726</v>
+        <v>0.1375843385234927</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.222771477067001</v>
       </c>
       <c r="E18" t="n">
-        <v>1.490979495667948</v>
+        <v>1.509563939433145</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9032153431880102</v>
+        <v>-0.9073164500085591</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1853322085681491</v>
+        <v>0.1874130618465086</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.441763817834013</v>
       </c>
       <c r="E19" t="n">
-        <v>1.858138343940789</v>
+        <v>1.87557690178568</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.004001361544015</v>
+        <v>-1.009917312411423</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2493790466138741</v>
+        <v>0.2511907426224911</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.64664437971599</v>
       </c>
       <c r="E20" t="n">
-        <v>2.168051690791045</v>
+        <v>2.18709260010142</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.215606983144754</v>
+        <v>-1.222927746077924</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3186799604865007</v>
+        <v>0.3218264247099808</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.832029244300673</v>
       </c>
       <c r="E21" t="n">
-        <v>2.429779590280924</v>
+        <v>2.448134227254411</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.239636746060091</v>
+        <v>-1.249930044103837</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4467106758130986</v>
+        <v>0.4487458825369405</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.990991217711833</v>
       </c>
       <c r="E22" t="n">
-        <v>2.651730452556412</v>
+        <v>2.669751397476184</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.345136164674831</v>
+        <v>-1.357160883752007</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4428936794439445</v>
+        <v>0.4461881014648268</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.119237550083708</v>
       </c>
       <c r="E23" t="n">
-        <v>2.723360914728564</v>
+        <v>2.743225036039379</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.452457510422476</v>
+        <v>-1.465209426333693</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5401003783181111</v>
+        <v>0.5436041448821264</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.219084945231084</v>
       </c>
       <c r="E24" t="n">
-        <v>2.853604700939711</v>
+        <v>2.871375376819196</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.60094732628774</v>
+        <v>-1.611749032507666</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5809556186305918</v>
+        <v>0.5845978988772815</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.293346962924542</v>
       </c>
       <c r="E25" t="n">
-        <v>2.86363592479976</v>
+        <v>2.88069829207466</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.540044591436813</v>
+        <v>-1.55286812521805</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6339260841197237</v>
+        <v>0.638256210722422</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.344296709397522</v>
       </c>
       <c r="E26" t="n">
-        <v>2.850214263752429</v>
+        <v>2.867427736862974</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.447151491964571</v>
+        <v>-1.463358379847043</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5714690053865125</v>
+        <v>0.5763705009302428</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.373484925107806</v>
       </c>
       <c r="E27" t="n">
-        <v>2.929437794165735</v>
+        <v>2.94425561017366</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.492532824260351</v>
+        <v>-1.508343059324256</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6029918863288014</v>
+        <v>0.6074857109201148</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.379860564283795</v>
       </c>
       <c r="E28" t="n">
-        <v>2.870449853575871</v>
+        <v>2.885138600015849</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.44642429513053</v>
+        <v>-1.461877227853899</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6213732816273508</v>
+        <v>0.6257128523447768</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.359813314281799</v>
       </c>
       <c r="E29" t="n">
-        <v>2.731896820423378</v>
+        <v>2.748694752485899</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.610548842927674</v>
+        <v>-1.62318979049084</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5911410963645285</v>
+        <v>0.5954460386612859</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.309263975807792</v>
       </c>
       <c r="E30" t="n">
-        <v>2.695181250399918</v>
+        <v>2.708393566904116</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.597478975153954</v>
+        <v>-1.609267591362935</v>
       </c>
       <c r="G30" t="n">
-        <v>0.540748874196087</v>
+        <v>0.5457589770591871</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.227634639334171</v>
       </c>
       <c r="E31" t="n">
-        <v>2.58446789344587</v>
+        <v>2.596602006851978</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.642536846520307</v>
+        <v>-1.652448444927137</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5384791386231714</v>
+        <v>0.5420159595887341</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.119165821172395</v>
       </c>
       <c r="E32" t="n">
-        <v>2.546749673242142</v>
+        <v>2.5584367652178</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.692884209143792</v>
+        <v>-1.701465761393123</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5298535138384436</v>
+        <v>0.5332864495420004</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.992762004552267</v>
       </c>
       <c r="E33" t="n">
-        <v>2.372279097760689</v>
+        <v>2.383168162041847</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.688667411917827</v>
+        <v>-1.696243165948647</v>
       </c>
       <c r="G33" t="n">
-        <v>0.525945224360254</v>
+        <v>0.5300770245536683</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.857030066696746</v>
       </c>
       <c r="E34" t="n">
-        <v>2.197284373911842</v>
+        <v>2.208987206078713</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.679934753832851</v>
+        <v>-1.687897716567511</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4694237717334676</v>
+        <v>0.4720712718954954</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.718700993873683</v>
       </c>
       <c r="E35" t="n">
-        <v>2.045347456170929</v>
+        <v>2.057542956322767</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.72618494468359</v>
+        <v>-1.731932475505019</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4061670912866355</v>
+        <v>0.4088665340796662</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.583928693476357</v>
       </c>
       <c r="E36" t="n">
-        <v>1.896313029689695</v>
+        <v>1.908266130896852</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.587699594353313</v>
+        <v>-1.595346179244591</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4108497981725051</v>
+        <v>0.4130156484834148</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.456475766724263</v>
       </c>
       <c r="E37" t="n">
-        <v>1.694262491164811</v>
+        <v>1.707397680732065</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.572991959683879</v>
+        <v>-1.580627526441309</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3229565704390747</v>
+        <v>0.3275904827321839</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.338103473804729</v>
       </c>
       <c r="E38" t="n">
-        <v>1.577172782750374</v>
+        <v>1.590307972317628</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.468441674599284</v>
+        <v>-1.476517179701117</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2775744511337332</v>
+        <v>0.2814166318088283</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.230212689037469</v>
       </c>
       <c r="E39" t="n">
-        <v>1.403764670175798</v>
+        <v>1.417471228684085</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.428499365377158</v>
+        <v>-1.437487014559785</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2654387637085049</v>
+        <v>0.2690920620890438</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.130929976386785</v>
       </c>
       <c r="E40" t="n">
-        <v>1.172004520736364</v>
+        <v>1.186759375979437</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.508573653125527</v>
+        <v>-1.515693728620731</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2899131870256094</v>
+        <v>0.2923639347974745</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.0384819947887</v>
       </c>
       <c r="E41" t="n">
-        <v>1.0945501878154</v>
+        <v>1.107457144610065</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.447700037628344</v>
+        <v>-1.455245098286299</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1898260331594625</v>
+        <v>0.1921571554781089</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9511536500267574</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9606294929368946</v>
+        <v>0.9727636063430015</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.324555077654264</v>
+        <v>-1.333666287337913</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1507919329703268</v>
+        <v>0.1532127743788872</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8664922590779768</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8770002830030676</v>
+        <v>0.8880971178082375</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.261921708779467</v>
+        <v>-1.270500900000116</v>
       </c>
       <c r="G43" t="n">
-        <v>0.11013501906713</v>
+        <v>0.1124755855005041</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7849705398907409</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7046656514692193</v>
+        <v>0.716170157226806</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.187124320135258</v>
+        <v>-1.196370108453778</v>
       </c>
       <c r="G44" t="n">
-        <v>0.09461991258846912</v>
+        <v>0.09719658189003835</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7068579627473879</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5477800176109371</v>
+        <v>0.5592089704507014</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.162127322469882</v>
+        <v>-1.169481139804599</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08156184995815861</v>
+        <v>0.08352622582154187</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6315952717375287</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3750896577556748</v>
+        <v>0.3868255443240927</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.015565680028211</v>
+        <v>-1.024614715956568</v>
       </c>
       <c r="G46" t="n">
-        <v>0.006659002032822785</v>
+        <v>0.00872883717733319</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5598733253555873</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3026312615257189</v>
+        <v>0.312818313278777</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.043649329190458</v>
+        <v>-1.050115399740761</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.03178326696670392</v>
+        <v>-0.0299290724418117</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4916219689194171</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1680998472281491</v>
+        <v>0.1783183793636332</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.9106195291346086</v>
+        <v>-0.9188374829669195</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01571567977646649</v>
+        <v>-0.01583058317232144</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.425551109006892</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1681439197635455</v>
+        <v>0.1772889708583026</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.8828373046340908</v>
+        <v>-0.8907813791392954</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1020396104459601</v>
+        <v>-0.09943933085757138</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3617976003014207</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.01279902234469632</v>
+        <v>-0.002489197100176812</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.8231276762771099</v>
+        <v>-0.8310835559257242</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.1081578227704559</v>
+        <v>-0.1059085494461172</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2990571814348172</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.01506875791761191</v>
+        <v>-0.006620997293591118</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9250611545725425</v>
+        <v>-0.9302365294433791</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.1522760047213929</v>
+        <v>-0.1496505408270633</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2366820317835926</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.06344938364903115</v>
+        <v>-0.05581381689160151</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.8863332011024997</v>
+        <v>-0.891797408482095</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1597998161212102</v>
+        <v>-0.1577441471487915</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1744258793459192</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1275135359050904</v>
+        <v>-0.1203218425398676</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.8406528051736718</v>
+        <v>-0.8463869568325701</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1957803192150226</v>
+        <v>-0.1937844629692133</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.110069381873604</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.231907206087116</v>
+        <v>-0.2239536874671836</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8470858213224277</v>
+        <v>-0.8527396980061397</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2480613643290249</v>
+        <v>-0.2457632964119259</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.04278814042259778</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3146675574659848</v>
+        <v>-0.3061442439241416</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8270107814493587</v>
+        <v>-0.8330801991810941</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2337000138662775</v>
+        <v>-0.2336370531014254</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.02882958608059775</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3435555303992163</v>
+        <v>-0.3370249250649398</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8129484946196583</v>
+        <v>-0.818814863884746</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2371581338757751</v>
+        <v>-0.2368748104339409</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1068198098571782</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3998330100622011</v>
+        <v>-0.3925043770334251</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.812710817732342</v>
+        <v>-0.8192241088562842</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.354787730848818</v>
+        <v>-0.3531963975171831</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1915623616926119</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4172747159453341</v>
+        <v>-0.4107535547257853</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7134925224211531</v>
+        <v>-0.7208557838705977</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3642397156722287</v>
+        <v>-0.3625649593271648</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2840727142170446</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5316382232416781</v>
+        <v>-0.5248101282934757</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7106970644617231</v>
+        <v>-0.7182775405499072</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.4184268979421262</v>
+        <v>-0.4164829843273198</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3844550345582101</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5471517557012177</v>
+        <v>-0.5410067850516598</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.6982087967533234</v>
+        <v>-0.7058223272430548</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.4192627020955368</v>
+        <v>-0.4181923690930524</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4905583901883039</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5557112716828508</v>
+        <v>-0.5516030817762561</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.7102484690121523</v>
+        <v>-0.7181626371540523</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4596504587289912</v>
+        <v>-0.4584494821394388</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.6000779101186816</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6680442943127171</v>
+        <v>-0.6624030097819754</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.749465155419359</v>
+        <v>-0.7578294930299508</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.494067960835352</v>
+        <v>-0.4925537544406607</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.7095352430812122</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7474063384086977</v>
+        <v>-0.7422325375569824</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7641601979358222</v>
+        <v>-0.7724725929154111</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5560323715835962</v>
+        <v>-0.5538413369667456</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.8142508093111333</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7758142355099326</v>
+        <v>-0.7711094923563647</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8139133683410157</v>
+        <v>-0.8210704332855699</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5473988767032619</v>
+        <v>-0.5458736521747215</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.9105273056055583</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8337168899156603</v>
+        <v>-0.8281299090446035</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8276828876141541</v>
+        <v>-0.8347431503827484</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5851438552320524</v>
+        <v>-0.5834801170208376</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.9931452793820016</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8633234025777655</v>
+        <v>-0.8570776947044444</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9345430457592578</v>
+        <v>-0.9412011466423597</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6737926121437071</v>
+        <v>-0.6710868732741913</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.058194470554732</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9933428910641269</v>
+        <v>-0.9862157324828774</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8976732218619105</v>
+        <v>-0.9045564074793584</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6715811152782797</v>
+        <v>-0.6693412860686688</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.104472966640038</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.04072322764396</v>
+        <v>-1.034493259961851</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.9836304060761411</v>
+        <v>-0.9898981502171603</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.7357365606433744</v>
+        <v>-0.731980951019951</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.131934144675467</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.074671672052173</v>
+        <v>-1.066798428407427</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9476420328867221</v>
+        <v>-0.954522857475488</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.7644183370717156</v>
+        <v>-0.7611003047640137</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.142843329150124</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.231749336243254</v>
+        <v>-1.221203408130539</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9446199161738248</v>
+        <v>-0.9510442752174135</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7878019651377586</v>
+        <v>-0.7838433070476873</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.139594565271939</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.236699626379744</v>
+        <v>-1.225731074132961</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9867508989841196</v>
+        <v>-0.9933916856568873</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.8177004583468651</v>
+        <v>-0.8134285704516551</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.125222803139005</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.215131629370122</v>
+        <v>-1.203353244285429</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.0781171999087</v>
+        <v>-1.084004031422365</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.779988534219622</v>
+        <v>-0.7760645045502194</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.10288172688944</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.172392288169444</v>
+        <v>-1.160302247298733</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.1496366937328</v>
+        <v>-1.153741735601152</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.769634636439706</v>
+        <v>-0.7653123799326144</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.074908933218127</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.178194909660119</v>
+        <v>-1.164753573373772</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.141242449758904</v>
+        <v>-1.145556049160828</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7790929173396018</v>
+        <v>-0.7732611764951828</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.041607327176567</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.10044466114435</v>
+        <v>-1.086775879094975</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.170400366971438</v>
+        <v>-1.175799252557499</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7953792931877001</v>
+        <v>-0.788987201536098</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.002782304190898</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.011660538588264</v>
+        <v>-0.9980059227109802</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.255032227085533</v>
+        <v>-1.259568550193122</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7349920495989992</v>
+        <v>-0.7302605481203693</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.9584983118690735</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9009629218254289</v>
+        <v>-0.8876451460401038</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.201409330670622</v>
+        <v>-1.206534336929577</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7500129140735716</v>
+        <v>-0.7433925896493809</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.9085149889940997</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.8117081675520734</v>
+        <v>-0.7979449443554202</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.203521664331408</v>
+        <v>-1.208716714441261</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.709252114908369</v>
+        <v>-0.7029292800981042</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.8528973080324291</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.691333481231482</v>
+        <v>-0.6771625870824119</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.270120774382322</v>
+        <v>-1.274823943516768</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6868585448696242</v>
+        <v>-0.6803704380516227</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.7910968666315427</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5180040696129716</v>
+        <v>-0.5023866518914262</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.183270334316753</v>
+        <v>-1.189253968006378</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.7051911455754133</v>
+        <v>-0.6982245369445365</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.7227019384592254</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2901600797473331</v>
+        <v>-0.2770941470214161</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.198957008879636</v>
+        <v>-1.204365338580425</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.6344468561685539</v>
+        <v>-0.6281318914538955</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.6490208297738332</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1201156460349772</v>
+        <v>-0.1077155233973704</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.205438819621152</v>
+        <v>-1.211786838737358</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4976708906040093</v>
+        <v>-0.4930180900814445</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.572213319772422</v>
       </c>
       <c r="E83" t="n">
-        <v>0.06886581172574727</v>
+        <v>0.08201359344597191</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.120707009292854</v>
+        <v>-1.127387146443654</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4552794076291392</v>
+        <v>-0.450593552705027</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4937515494784112</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2174185883558636</v>
+        <v>0.2304278563934138</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.092643822379184</v>
+        <v>-1.100007083828629</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3632653978361435</v>
+        <v>-0.3585700987973036</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4154973090920709</v>
       </c>
       <c r="E85" t="n">
-        <v>0.432986803094478</v>
+        <v>0.4433690332185773</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.073364449171933</v>
+        <v>-1.079972968452714</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2840214051742604</v>
+        <v>-0.2808796630081443</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3385100051006005</v>
       </c>
       <c r="E86" t="n">
-        <v>0.590939621917002</v>
+        <v>0.6012132447217315</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9638560038552405</v>
+        <v>-0.9710162168380373</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2274983785283527</v>
+        <v>-0.2236215694325892</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.263907277366581</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8218938735663306</v>
+        <v>0.830522646389301</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9212181868878868</v>
+        <v>-0.9267296148411212</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1692785592696829</v>
+        <v>-0.1653718438106146</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1938254724555152</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9314361602941307</v>
+        <v>0.9394557877171577</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7454718689086192</v>
+        <v>-0.7512941656383104</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1042511073113876</v>
+        <v>-0.1014194469121676</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1300235393785941</v>
       </c>
       <c r="E89" t="n">
-        <v>1.17928435917238</v>
+        <v>1.186378463352082</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5861716897182617</v>
+        <v>-0.5921136119011718</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0236300761986868</v>
+        <v>0.02490660570606166</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.07521533152050981</v>
       </c>
       <c r="E90" t="n">
-        <v>1.352862465812056</v>
+        <v>1.35896651196446</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.514284662429338</v>
+        <v>-0.5205823129336621</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04556718069225449</v>
+        <v>0.04629752556453801</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.0324023726162385</v>
       </c>
       <c r="E91" t="n">
-        <v>1.436664817849225</v>
+        <v>1.441942503962947</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2942021608508333</v>
+        <v>-0.300561198100888</v>
       </c>
       <c r="G91" t="n">
-        <v>0.07734347871307277</v>
+        <v>0.0774174576117739</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.003521679989675279</v>
       </c>
       <c r="E92" t="n">
-        <v>1.581490317200102</v>
+        <v>1.584764276972407</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2069054863643758</v>
+        <v>-0.2118699426729582</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09009932967209354</v>
+        <v>0.09032598842556085</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.0105398774945879</v>
       </c>
       <c r="E93" t="n">
-        <v>1.595310205085122</v>
+        <v>1.598122977254886</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.001488120939029575</v>
+        <v>-0.006866544276514025</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1186488884942454</v>
+        <v>0.1182538096947989</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.009981210693393297</v>
       </c>
       <c r="E94" t="n">
-        <v>1.544176619910548</v>
+        <v>1.547178274374868</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1563513685067608</v>
+        <v>0.1514923714793056</v>
       </c>
       <c r="G94" t="n">
-        <v>0.133858635263374</v>
+        <v>0.1326796949415198</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.003655205292748641</v>
       </c>
       <c r="E95" t="n">
-        <v>1.538541631456291</v>
+        <v>1.540967194922215</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2056653875771113</v>
+        <v>0.2022481920647675</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1460226550327857</v>
+        <v>0.1447114971047422</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.02795854297327076</v>
       </c>
       <c r="E96" t="n">
-        <v>1.512068203855135</v>
+        <v>1.512387729736759</v>
       </c>
       <c r="F96" t="n">
-        <v>0.295554471556351</v>
+        <v>0.2923843970460515</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05208991593092454</v>
+        <v>0.0522394477474481</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.05775566070422391</v>
       </c>
       <c r="E97" t="n">
-        <v>1.352941166768121</v>
+        <v>1.353293747051292</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3102148856521456</v>
+        <v>0.3074272977883221</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03120897826774961</v>
+        <v>0.03129554931942115</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.08608101097161144</v>
       </c>
       <c r="E98" t="n">
-        <v>1.293063905374721</v>
+        <v>1.292127363997547</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2638930769313877</v>
+        <v>0.2602869991244878</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0293579317811</v>
+        <v>0.02874878638115664</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1063327614103368</v>
       </c>
       <c r="E99" t="n">
-        <v>1.190056946038561</v>
+        <v>1.188511259261444</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2335947828654708</v>
+        <v>0.231365971789709</v>
       </c>
       <c r="G99" t="n">
-        <v>0.06426652785330665</v>
+        <v>0.06334257862910316</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1188845175022339</v>
       </c>
       <c r="E100" t="n">
-        <v>1.073225376760018</v>
+        <v>1.072003937921889</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2321765916371788</v>
+        <v>0.2291418827713111</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02664274879685632</v>
+        <v>0.02584944315972077</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1267137293082513</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9124015470602415</v>
+        <v>0.9109266911435827</v>
       </c>
       <c r="F101" t="n">
-        <v>0.196471541889594</v>
+        <v>0.194544942485122</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.01399370285776354</v>
+        <v>-0.01412277242571019</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1360873217805622</v>
       </c>
       <c r="E102" t="n">
-        <v>0.741532327328324</v>
+        <v>0.7403502389682272</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1564725679791009</v>
+        <v>0.1555926912902939</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.03640458710684273</v>
+        <v>-0.03695706781841927</v>
       </c>
     </row>
   </sheetData>
